--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem3/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem3/incorrect_predictions.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,17 +491,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft in Auto Power Off Protection</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Forced landing in progress</t>
+          <t>Compass disconnected</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress</t>
+          <t>Compass Error Compass Error Compass disconnected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Aircraft in Auto Power Off Protection</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compass disconnected</t>
+          <t>Forced landing in progress</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
